--- a/pred_ohlcv/54_21/2020-01-19 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-50702.434827494</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88398.41472749399</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-96237.57652749399</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-244976.7319047983</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-245559.9557056864</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-254407.9682056864</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-258062.7238056864</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-260722.8838056864</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-269038.2529056864</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-275962.2077056864</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-351654.7493056864</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-387069.8134056864</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-376481.3553056864</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-375646.5003056864</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-391080.4191056865</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-644626.2063056865</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-648889.4525056866</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-642786.2628056866</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-653686.2628056866</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-653686.2628056866</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-653683.7226056865</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-657041.8692056865</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-647003.0303056865</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-694671.1142815902</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-694863.3154815902</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-695447.8554815903</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-700447.8554815903</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-699810.2654815903</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-682810.2654815903</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-682929.6460815903</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-679081.5344815904</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-706595.3561815902</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-708685.0952815902</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-766724.1208891602</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-772296.9394891602</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-772293.9394891602</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-773002.8288891602</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-779282.1804891602</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-779279.1804891602</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-779289.1804891602</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-777108.4673556616</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-779926.4373556615</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-793076.6653648741</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-793073.6653648741</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-50702.434827494</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88398.41472749399</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-96237.57652749399</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-83695.41472749399</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-65769.21522749399</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-49885.70572749399</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-53173.22132749399</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-244976.7319047983</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-245559.9557056864</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-254407.9682056864</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-258062.7238056864</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-260722.8838056864</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-269038.2529056864</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-275962.2077056864</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-351654.7493056864</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-387069.8134056864</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-376481.3553056864</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-375646.5003056864</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-391080.4191056865</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-354087.7269056865</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-365973.1759056866</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-365221.5724056866</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-365221.5724056866</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-364702.5724056866</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-369494.3193056866</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-397637.3193056866</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-397637.3193056866</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-397637.3193056866</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-398557.9876056865</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-399557.9876056865</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-408091.9876056865</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-401969.5590056865</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-402592.6421056865</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-402592.6421056865</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-434357.0075056865</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-644626.2063056865</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-648889.4525056866</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-642786.2628056866</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-653686.2628056866</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-653686.2628056866</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-653683.7226056865</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-657041.8692056865</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-647003.0303056865</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-678206.7600815903</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-694686.2502815903</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-694671.1142815902</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-694863.3154815902</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-695447.8554815903</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-700447.8554815903</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-699810.2654815903</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-682810.2654815903</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-682929.6460815903</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-679081.5344815904</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-676900.2779815904</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-706595.3561815902</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-708685.0952815902</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-751126.6866815904</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-766724.1208891602</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-772296.9394891602</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-772293.9394891602</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-773002.8288891602</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-779282.1804891602</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-779279.1804891602</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-779289.1804891602</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-777108.4673556616</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-779926.4373556615</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-793076.6653648741</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-793073.6653648741</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
